--- a/筋トレログアプリ　画面定義書初.xlsx
+++ b/筋トレログアプリ　画面定義書初.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\workout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8138B9-27A5-4602-9FAC-A1F62611DC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5610DA-7D0E-45DA-A435-34695862E2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D5209ABD-17E6-49B9-812C-6AE44CCD3F42}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>PK</t>
     <phoneticPr fontId="1"/>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>body_weight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BINARY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -310,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -330,6 +342,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2436,13 +2454,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1707444</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>112888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>7056</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>119944</xdr:rowOff>
@@ -2492,13 +2510,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1707443</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>119944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1030111</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>119946</xdr:rowOff>
@@ -2548,13 +2566,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>7056</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>77611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1220610</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>70555</xdr:rowOff>
@@ -2784,13 +2802,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>10583</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>179916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>10583</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
@@ -3214,10 +3232,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1880B974-270B-447F-B14B-8668411964A9}">
-  <dimension ref="B2:L22"/>
+  <dimension ref="B2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3226,120 +3244,122 @@
     <col min="2" max="2" width="5.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="10.9140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.9140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="8" max="8" width="10.9140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.9140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:13" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F4" s="10" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F5" s="1" t="s">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F6" s="2" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F7" s="3"/>
-      <c r="G7" s="1" t="s">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7" s="3"/>
+      <c r="H7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F8" s="2"/>
-      <c r="G8" s="4" t="s">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8" s="2"/>
+      <c r="H8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="2"/>
+      <c r="L8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F9" s="5"/>
-      <c r="G9" s="4" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9" s="5"/>
+      <c r="H9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3"/>
+      <c r="L9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4" t="s">
+      <c r="E10" s="11"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -3349,15 +3369,16 @@
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4" t="s">
+      <c r="E11" s="1"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -3365,47 +3386,54 @@
       <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4" t="s">
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3"/>
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F14" s="10" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="F15" s="1" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="7"/>
+      <c r="G15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
@@ -3415,22 +3443,23 @@
       <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="E16" s="8"/>
+      <c r="G16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -3438,24 +3467,25 @@
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1" t="s">
+      <c r="E17" s="8"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
         <v>7</v>
@@ -3463,72 +3493,73 @@
       <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="4" t="s">
+      <c r="E18" s="8"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="2"/>
+      <c r="L18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F19" s="5"/>
-      <c r="G19" s="4" t="s">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19" s="5"/>
+      <c r="H19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3"/>
+      <c r="L19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F20" s="5"/>
-      <c r="G20" s="4" t="s">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G20" s="5"/>
+      <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F21" s="5"/>
-      <c r="G21" s="4" t="s">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21" s="5"/>
+      <c r="H21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F22" s="3"/>
-      <c r="G22" s="4" t="s">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G22" s="3"/>
+      <c r="H22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/筋トレログアプリ　画面定義書初.xlsx
+++ b/筋トレログアプリ　画面定義書初.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\workout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5610DA-7D0E-45DA-A435-34695862E2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F70ECDC-DA72-4897-B6D6-501EDF169398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D5209ABD-17E6-49B9-812C-6AE44CCD3F42}"/>
   </bookViews>
@@ -3234,7 +3234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1880B974-270B-447F-B14B-8668411964A9}">
   <dimension ref="B2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>

--- a/筋トレログアプリ　画面定義書初.xlsx
+++ b/筋トレログアプリ　画面定義書初.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\workout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F70ECDC-DA72-4897-B6D6-501EDF169398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EEF355-6238-4774-AD5B-012761AB102E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D5209ABD-17E6-49B9-812C-6AE44CCD3F42}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>PK</t>
     <phoneticPr fontId="1"/>
@@ -98,14 +98,6 @@
   </si>
   <si>
     <t>minute</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>whight_ machines</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>aerobic_ machines</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -169,6 +161,25 @@
   </si>
   <si>
     <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>machines</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEFAULT CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>NULL ON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>work_load</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -176,7 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,21 +205,48 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -322,45 +360,84 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2454,13 +2531,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1707444</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>21166</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>112888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>7056</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>119944</xdr:rowOff>
@@ -2478,8 +2555,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7041444" y="1580444"/>
-          <a:ext cx="1093612" cy="7056"/>
+          <a:off x="9616722" y="1580444"/>
+          <a:ext cx="881945" cy="7056"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2506,410 +2583,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1707443</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>119944</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1030111</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>119946</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B900C844-87A2-40D3-A53A-4DE7AB24142B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7041443" y="3393722"/>
-          <a:ext cx="1037168" cy="2"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7056</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>77611</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1220610</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>70555</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="フリーフォーム: 図形 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17FC8444-FE9D-4E4E-9A26-BC1AAFA40955}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3810000" y="1319389"/>
-          <a:ext cx="1213554" cy="1121833"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 1213555"/>
-            <a:gd name="connsiteY0" fmla="*/ 1107722 h 1107722"/>
-            <a:gd name="connsiteX1" fmla="*/ 578555 w 1213555"/>
-            <a:gd name="connsiteY1" fmla="*/ 1107722 h 1107722"/>
-            <a:gd name="connsiteX2" fmla="*/ 578555 w 1213555"/>
-            <a:gd name="connsiteY2" fmla="*/ 7055 h 1107722"/>
-            <a:gd name="connsiteX3" fmla="*/ 1213555 w 1213555"/>
-            <a:gd name="connsiteY3" fmla="*/ 7055 h 1107722"/>
-            <a:gd name="connsiteX4" fmla="*/ 1206500 w 1213555"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 1107722"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="1213555" h="1107722">
-              <a:moveTo>
-                <a:pt x="0" y="1107722"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="578555" y="1107722"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="578555" y="7055"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1213555" y="7055"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1206500" y="0"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>373944</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>141111</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>769056</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>155223</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="フリーフォーム: 図形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A2FD27-5E6E-4C3A-8D6D-AABDAA685F47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="373944" y="2511778"/>
-          <a:ext cx="395112" cy="1368778"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 395112 w 395112"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 1368778"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 395112"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 1368778"/>
-            <a:gd name="connsiteX2" fmla="*/ 7056 w 395112"/>
-            <a:gd name="connsiteY2" fmla="*/ 1368778 h 1368778"/>
-            <a:gd name="connsiteX3" fmla="*/ 388056 w 395112"/>
-            <a:gd name="connsiteY3" fmla="*/ 1361722 h 1368778"/>
-            <a:gd name="connsiteX4" fmla="*/ 388056 w 395112"/>
-            <a:gd name="connsiteY4" fmla="*/ 1361722 h 1368778"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="395112" h="1368778">
-              <a:moveTo>
-                <a:pt x="395112" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="7056" y="1368778"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="388056" y="1361722"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="388056" y="1361722"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>179916</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="フリーフォーム: 図形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E0C410-3233-4ED9-97BB-B493246A5F0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3238500" y="2614083"/>
-          <a:ext cx="1217083" cy="1132417"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 1217083"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 1132417"/>
-            <a:gd name="connsiteX1" fmla="*/ 603250 w 1217083"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 1132417"/>
-            <a:gd name="connsiteX2" fmla="*/ 592667 w 1217083"/>
-            <a:gd name="connsiteY2" fmla="*/ 1132417 h 1132417"/>
-            <a:gd name="connsiteX3" fmla="*/ 1217083 w 1217083"/>
-            <a:gd name="connsiteY3" fmla="*/ 1121834 h 1132417"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="1217083" h="1132417">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="603250" y="0"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="599722" y="377472"/>
-                <a:pt x="596195" y="754945"/>
-                <a:pt x="592667" y="1132417"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="1217083" y="1121834"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3212,17 +2885,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464630CC-3631-4310-9436-34D46B9B92DD}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3232,334 +2902,353 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1880B974-270B-447F-B14B-8668411964A9}">
-  <dimension ref="B2:M22"/>
+  <dimension ref="B2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="10.9140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.9140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:14" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="7"/>
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="11"/>
+      <c r="C7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="6"/>
+      <c r="C13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="6"/>
+      <c r="C14" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="G14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="6"/>
+      <c r="C15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="G15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="6"/>
+      <c r="C16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="6"/>
+      <c r="C17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" s="19"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="19"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19" s="24"/>
+      <c r="H19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="19"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="G20" s="24"/>
+      <c r="H20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21" s="24"/>
+      <c r="H21" s="15" t="s">
         <v>23</v>
       </c>
+      <c r="I21" s="15" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="G4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="G22" s="17"/>
+      <c r="H22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="1" t="s">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="C28" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="D28" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="17"/>
+      <c r="C30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="G6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="G7" s="3"/>
-      <c r="H7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="G8" s="2"/>
-      <c r="H8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="G9" s="5"/>
-      <c r="H9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="3"/>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="G14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="7"/>
-      <c r="G15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="G16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="11"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="2"/>
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="3"/>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="G19" s="5"/>
-      <c r="H19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="G20" s="5"/>
-      <c r="H20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="G21" s="5"/>
-      <c r="H21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="G22" s="3"/>
-      <c r="H22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L16:N16"/>
     <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/筋トレログアプリ　画面定義書初.xlsx
+++ b/筋トレログアプリ　画面定義書初.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\workout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EEF355-6238-4774-AD5B-012761AB102E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D04981-D234-4309-8BDA-FC17339E79C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D5209ABD-17E6-49B9-812C-6AE44CCD3F42}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>PK</t>
     <phoneticPr fontId="1"/>
@@ -98,10 +98,6 @@
   </si>
   <si>
     <t>minute</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>genre</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -180,6 +176,10 @@
   </si>
   <si>
     <t>work_load</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>part</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -187,7 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,21 +202,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -360,74 +345,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -436,7 +394,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2516,67 +2474,6 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>21166</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>112888</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7056</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>119944</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0E7745-5261-4B93-8E7B-F9B815CD58C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9616722" y="1580444"/>
-          <a:ext cx="881945" cy="7056"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2904,355 +2801,356 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1880B974-270B-447F-B14B-8668411964A9}">
   <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.9140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.9140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="10.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.4140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.9140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.75" style="4" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="10.9140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="1" t="s">
-        <v>21</v>
+    <row r="2" spans="2:14" ht="17.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>28</v>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="7"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="11"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>5</v>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="B9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>28</v>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="6"/>
-      <c r="C13" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="19"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="6"/>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="G14" s="20" t="s">
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="G14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="6"/>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="G15" s="12" t="s">
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="21"/>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="6"/>
-      <c r="C16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
+      <c r="J16" s="11"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="6"/>
-      <c r="C17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="18" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="12" t="s">
+      <c r="D17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
+      <c r="J17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E18" s="19"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15" t="s">
+      <c r="E18" s="11"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="19"/>
+      <c r="I18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="G19" s="24"/>
-      <c r="H19" s="15" t="s">
+      <c r="B19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="19"/>
+      <c r="I19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="11"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="G20" s="24"/>
-      <c r="H20" s="15" t="s">
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>20</v>
+      <c r="I20" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="G21" s="24"/>
-      <c r="H21" s="15" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="G22" s="17"/>
-      <c r="H22" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="15" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="5" t="s">
         <v>25</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="B27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>18</v>
+      <c r="D28" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="14"/>
-      <c r="C29" s="12" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="17"/>
-      <c r="C30" s="12" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>20</v>
+      <c r="D30" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L6:N6"/>
     <mergeCell ref="L16:N16"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B19:E19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>